--- a/Module6/sprint2/black-box-test-case/[C0620G1] Black Box TC _ Hồ Thị Quỳnh Mai.xlsx
+++ b/Module6/sprint2/black-box-test-case/[C0620G1] Black Box TC _ Hồ Thị Quỳnh Mai.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="232">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -152,9 +152,6 @@
     <t>- Status = enable</t>
   </si>
   <si>
-    <t xml:space="preserve">Displays all records </t>
-  </si>
-  <si>
     <t>Inter-case Dependence</t>
   </si>
   <si>
@@ -252,16 +249,7 @@
     <t>[Thêm mới vị trí] button</t>
   </si>
   <si>
-    <t>[Tìm kiếm vị trí] textbox</t>
-  </si>
-  <si>
     <t>[Tìm kiếm tầng] textbox</t>
-  </si>
-  <si>
-    <t>[Tìm kiếm trạng thái] textbox</t>
-  </si>
-  <si>
-    <t>5.8.1. Danh sách bãi xe</t>
   </si>
   <si>
     <t>5.8.2. Thêm mới vị trí</t>
@@ -269,9 +257,6 @@
   <si>
     <t>At the List Parking Lot screen:
 1. Click [Thêm mới vị trí] button</t>
-  </si>
-  <si>
-    <t>Display records value of the entered cell</t>
   </si>
   <si>
     <t>Display records with Input-item value</t>
@@ -290,9 +275,6 @@
   </si>
   <si>
     <t>[Chiều rộng] textbox</t>
-  </si>
-  <si>
-    <t>[Loại xe] check box</t>
   </si>
   <si>
     <t>- Status = enable
@@ -367,12 +349,6 @@
   </si>
   <si>
     <t>GUI-List Parking Slot-10</t>
-  </si>
-  <si>
-    <t>GUI-List Parking Slot-11</t>
-  </si>
-  <si>
-    <t>GUI-List Parking Slot-12</t>
   </si>
   <si>
     <t>FUNC-List Parking Slot-1</t>
@@ -501,15 +477,6 @@
     <t xml:space="preserve">Search parking slot successfully with  input-textbox include space characters </t>
   </si>
   <si>
-    <t>Search parking slot succesfully with a field of value entered and the remaining 2 cells are empty</t>
-  </si>
-  <si>
-    <t>Search relative parking slot successfully with  filled input-items</t>
-  </si>
-  <si>
-    <t>Search relative  parking slot fail with  filled input-items</t>
-  </si>
-  <si>
     <t>Display popup detail parking slot successfully</t>
   </si>
   <si>
@@ -549,11 +516,6 @@
   <si>
     <t>At the List Parking Slot screen:
 1. Input item with only space character or unfilled
-2. Click [Tìm kiếm] button</t>
-  </si>
-  <si>
-    <t>At the List Parking Slot screen:
-1. Input textbox with value in 1 cell
 2. Click [Tìm kiếm] button</t>
   </si>
   <si>
@@ -814,12 +776,38 @@
   <si>
     <t>FUNC-create-position-parking slot-21</t>
   </si>
+  <si>
+    <t>5.8.1. Danh sách bãi xe ô tô</t>
+  </si>
+  <si>
+    <t>Displays all records and message "Vui lòng nhập từ khóa tìm kiếm"</t>
+  </si>
+  <si>
+    <t>Search absolute parking slot successfully with  filled input-items</t>
+  </si>
+  <si>
+    <t>Search absolute parking slot fail with  filled input-items and space characters</t>
+  </si>
+  <si>
+    <t>At the List Parking Slot  screen:
+1. Input-item with value existed in system  and space character
+2. Click [Tìm kiếm] button</t>
+  </si>
+  <si>
+    <t>Display all records and "Vui lòng không nhập khoảng trắng"</t>
+  </si>
+  <si>
+    <t>Search absolute  parking slot fail with  filled input-items</t>
+  </si>
+  <si>
+    <t>[Loại xe] radio</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1016,12 +1004,6 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="21"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1708,7 +1690,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="32"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2065,14 +2047,13 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2217,14 +2198,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>484407</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>104106</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>294076</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>18437</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2238,7 +2219,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="419100"/>
-          <a:ext cx="10942857" cy="5352381"/>
+          <a:ext cx="9590476" cy="4904762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2260,14 +2241,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>122695</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>75693</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>389533</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85262</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2281,7 +2262,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="419100"/>
-          <a:ext cx="9038095" cy="4057143"/>
+          <a:ext cx="7933333" cy="3704762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2539,14 +2520,14 @@
     </row>
     <row r="2" spans="1:26" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="138"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="137"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -2600,16 +2581,16 @@
       <c r="B4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="139" t="s">
-        <v>62</v>
+      <c r="C4" s="138" t="s">
+        <v>61</v>
       </c>
-      <c r="D4" s="140"/>
-      <c r="E4" s="141"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="140"/>
       <c r="F4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2636,9 +2617,9 @@
       <c r="B5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="142"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="144"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="143"/>
       <c r="F5" s="20" t="s">
         <v>4</v>
       </c>
@@ -2665,17 +2646,17 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="147"/>
-      <c r="D6" s="148"/>
-      <c r="E6" s="149"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="148"/>
       <c r="F6" s="20" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2699,10 +2680,10 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="146"/>
-      <c r="C7" s="150"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="152"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="151"/>
       <c r="F7" s="21" t="s">
         <v>7</v>
       </c>
@@ -9520,13 +9501,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="56"/>
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
       <c r="G1" s="56"/>
       <c r="H1" s="56"/>
       <c r="I1" s="56"/>
@@ -9578,15 +9559,15 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="139" t="s">
-        <v>62</v>
+      <c r="C3" s="157"/>
+      <c r="D3" s="138" t="s">
+        <v>61</v>
       </c>
-      <c r="E3" s="140"/>
-      <c r="F3" s="141"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="140"/>
       <c r="G3" s="56"/>
       <c r="H3" s="56"/>
       <c r="I3" s="56"/>
@@ -9610,13 +9591,13 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="141"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="140"/>
       <c r="G4" s="56"/>
       <c r="H4" s="56"/>
       <c r="I4" s="56"/>
@@ -9640,15 +9621,15 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="60"/>
-      <c r="B5" s="153" t="s">
+      <c r="B5" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="154"/>
-      <c r="D5" s="155" t="s">
-        <v>46</v>
+      <c r="C5" s="153"/>
+      <c r="D5" s="154" t="s">
+        <v>45</v>
       </c>
-      <c r="E5" s="140"/>
-      <c r="F5" s="141"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="140"/>
       <c r="G5" s="60"/>
       <c r="H5" s="60"/>
       <c r="I5" s="60"/>
@@ -9770,16 +9751,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
-      <c r="D9" s="134" t="s">
-        <v>97</v>
+      <c r="D9" s="133" t="s">
+        <v>91</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G9" s="56"/>
       <c r="H9" s="56"/>
@@ -9808,16 +9789,16 @@
         <v>2</v>
       </c>
       <c r="C10" s="127" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
-      <c r="D10" s="135" t="s">
-        <v>98</v>
+      <c r="D10" s="134" t="s">
+        <v>92</v>
       </c>
       <c r="E10" s="128" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F10" s="129" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G10" s="56"/>
       <c r="H10" s="56"/>
@@ -17115,7 +17096,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1005"/>
+  <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -17136,13 +17117,13 @@
       <c r="A1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="164" t="s">
-        <v>95</v>
+      <c r="B1" s="163" t="s">
+        <v>89</v>
       </c>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="166"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="165"/>
       <c r="G1" s="39"/>
       <c r="H1" s="33"/>
       <c r="I1" s="47"/>
@@ -17168,11 +17149,11 @@
       <c r="A2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="168"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="167"/>
       <c r="G2" s="39"/>
       <c r="H2" s="33"/>
       <c r="I2" s="47"/>
@@ -17198,13 +17179,13 @@
       <c r="A3" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="169" t="s">
-        <v>45</v>
+      <c r="B3" s="168" t="s">
+        <v>44</v>
       </c>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="170"/>
       <c r="G3" s="39"/>
       <c r="H3" s="33"/>
       <c r="I3" s="47"/>
@@ -17239,10 +17220,10 @@
       <c r="D4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="172" t="s">
+      <c r="E4" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="168"/>
+      <c r="F4" s="167"/>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
       <c r="I4" s="47"/>
@@ -17269,10 +17250,10 @@
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
       <c r="D5" s="42"/>
-      <c r="E5" s="173">
-        <v>22</v>
+      <c r="E5" s="172">
+        <v>20</v>
       </c>
-      <c r="F5" s="174"/>
+      <c r="F5" s="173"/>
       <c r="G5" s="39"/>
       <c r="H5" s="39"/>
       <c r="I5" s="47"/>
@@ -17367,16 +17348,16 @@
       <c r="Z7" s="47"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="159" t="s">
-        <v>160</v>
+      <c r="A8" s="158" t="s">
+        <v>149</v>
       </c>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="141"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="140"/>
       <c r="I8" s="47"/>
       <c r="J8" s="47"/>
       <c r="K8" s="47"/>
@@ -17398,14 +17379,14 @@
     </row>
     <row r="9" spans="1:26" ht="33" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
-      <c r="C9" s="87"/>
+      <c r="C9" s="110"/>
       <c r="D9" s="49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="49"/>
       <c r="F9" s="104"/>
@@ -17430,16 +17411,16 @@
       <c r="Y9" s="47"/>
       <c r="Z9" s="47"/>
     </row>
-    <row r="10" spans="1:26" ht="33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
-      <c r="B10" s="50" t="s">
-        <v>75</v>
+      <c r="B10" s="90" t="s">
+        <v>37</v>
       </c>
-      <c r="C10" s="110"/>
-      <c r="D10" s="49" t="s">
-        <v>54</v>
+      <c r="C10" s="49"/>
+      <c r="D10" s="50" t="s">
+        <v>56</v>
       </c>
       <c r="E10" s="49"/>
       <c r="F10" s="104"/>
@@ -17464,16 +17445,16 @@
       <c r="Y10" s="47"/>
       <c r="Z10" s="47"/>
     </row>
-    <row r="11" spans="1:26" ht="33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
-      <c r="B11" s="50" t="s">
-        <v>76</v>
+      <c r="B11" s="90" t="s">
+        <v>66</v>
       </c>
-      <c r="C11" s="110"/>
-      <c r="D11" s="49" t="s">
-        <v>54</v>
+      <c r="C11" s="88"/>
+      <c r="D11" s="50" t="s">
+        <v>56</v>
       </c>
       <c r="E11" s="49"/>
       <c r="F11" s="104"/>
@@ -17498,16 +17479,16 @@
       <c r="Y11" s="47"/>
       <c r="Z11" s="47"/>
     </row>
-    <row r="12" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
-        <v>102</v>
+    <row r="12" spans="1:26" ht="33" x14ac:dyDescent="0.25">
+      <c r="A12" s="174" t="s">
+        <v>96</v>
       </c>
-      <c r="B12" s="90" t="s">
-        <v>37</v>
+      <c r="B12" s="177" t="s">
+        <v>46</v>
       </c>
-      <c r="C12" s="49"/>
+      <c r="C12" s="88"/>
       <c r="D12" s="50" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="104"/>
@@ -17532,16 +17513,14 @@
       <c r="Y12" s="47"/>
       <c r="Z12" s="47"/>
     </row>
-    <row r="13" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
-        <v>103</v>
+    <row r="13" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="175"/>
+      <c r="B13" s="177"/>
+      <c r="C13" s="89" t="s">
+        <v>47</v>
       </c>
-      <c r="B13" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="88"/>
       <c r="D13" s="50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" s="49"/>
       <c r="F13" s="104"/>
@@ -17566,16 +17545,14 @@
       <c r="Y13" s="47"/>
       <c r="Z13" s="47"/>
     </row>
-    <row r="14" spans="1:26" ht="33" x14ac:dyDescent="0.25">
-      <c r="A14" s="175" t="s">
-        <v>104</v>
+    <row r="14" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="175"/>
+      <c r="B14" s="177"/>
+      <c r="C14" s="89" t="s">
+        <v>67</v>
       </c>
-      <c r="B14" s="178" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="88"/>
       <c r="D14" s="50" t="s">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="E14" s="49"/>
       <c r="F14" s="104"/>
@@ -17600,14 +17577,14 @@
       <c r="Y14" s="47"/>
       <c r="Z14" s="47"/>
     </row>
-    <row r="15" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="176"/>
-      <c r="B15" s="178"/>
+    <row r="15" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="175"/>
+      <c r="B15" s="177"/>
       <c r="C15" s="89" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="E15" s="49"/>
       <c r="F15" s="104"/>
@@ -17633,13 +17610,13 @@
       <c r="Z15" s="47"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="176"/>
-      <c r="B16" s="178"/>
+      <c r="A16" s="175"/>
+      <c r="B16" s="177"/>
       <c r="C16" s="89" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E16" s="49"/>
       <c r="F16" s="104"/>
@@ -17664,19 +17641,19 @@
       <c r="Y16" s="47"/>
       <c r="Z16" s="47"/>
     </row>
-    <row r="17" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="176"/>
-      <c r="B17" s="178"/>
+      <c r="B17" s="177"/>
       <c r="C17" s="89" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>162</v>
+        <v>70</v>
       </c>
-      <c r="E17" s="49"/>
+      <c r="E17" s="51"/>
       <c r="F17" s="104"/>
       <c r="G17" s="104"/>
-      <c r="H17" s="49"/>
+      <c r="H17" s="51"/>
       <c r="I17" s="47"/>
       <c r="J17" s="47"/>
       <c r="K17" s="47"/>
@@ -17696,19 +17673,21 @@
       <c r="Y17" s="47"/>
       <c r="Z17" s="47"/>
     </row>
-    <row r="18" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="176"/>
-      <c r="B18" s="178"/>
-      <c r="C18" s="89" t="s">
-        <v>70</v>
+    <row r="18" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="110" t="s">
+        <v>97</v>
       </c>
+      <c r="B18" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="50"/>
       <c r="D18" s="50" t="s">
-        <v>163</v>
+        <v>56</v>
       </c>
-      <c r="E18" s="49"/>
+      <c r="E18" s="51"/>
       <c r="F18" s="104"/>
       <c r="G18" s="104"/>
-      <c r="H18" s="49"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="47"/>
       <c r="J18" s="47"/>
       <c r="K18" s="47"/>
@@ -17728,14 +17707,16 @@
       <c r="Y18" s="47"/>
       <c r="Z18" s="47"/>
     </row>
-    <row r="19" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="177"/>
-      <c r="B19" s="178"/>
-      <c r="C19" s="89" t="s">
-        <v>49</v>
+    <row r="19" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="87" t="s">
+        <v>98</v>
       </c>
+      <c r="B19" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="50"/>
       <c r="D19" s="50" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E19" s="51"/>
       <c r="F19" s="104"/>
@@ -17760,16 +17741,16 @@
       <c r="Y19" s="47"/>
       <c r="Z19" s="47"/>
     </row>
-    <row r="20" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="110" t="s">
-        <v>105</v>
+    <row r="20" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="87" t="s">
+        <v>99</v>
       </c>
-      <c r="B20" s="91" t="s">
-        <v>72</v>
+      <c r="B20" s="50" t="s">
+        <v>49</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" s="51"/>
       <c r="F20" s="104"/>
@@ -17796,14 +17777,14 @@
     </row>
     <row r="21" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="87" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
-      <c r="B21" s="91" t="s">
-        <v>53</v>
+      <c r="B21" s="50" t="s">
+        <v>72</v>
       </c>
       <c r="C21" s="50"/>
       <c r="D21" s="50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" s="51"/>
       <c r="F21" s="104"/>
@@ -17829,15 +17810,17 @@
       <c r="Z21" s="47"/>
     </row>
     <row r="22" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="87" t="s">
-        <v>107</v>
+      <c r="A22" s="159" t="s">
+        <v>101</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="50"/>
+      <c r="C22" s="52" t="s">
+        <v>38</v>
+      </c>
       <c r="D22" s="50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" s="51"/>
       <c r="F22" s="104"/>
@@ -17863,15 +17846,13 @@
       <c r="Z22" s="47"/>
     </row>
     <row r="23" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="87" t="s">
-        <v>108</v>
+      <c r="A23" s="160"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="52" t="s">
+        <v>39</v>
       </c>
-      <c r="B23" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="50"/>
       <c r="D23" s="50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" s="51"/>
       <c r="F23" s="104"/>
@@ -17897,17 +17878,17 @@
       <c r="Z23" s="47"/>
     </row>
     <row r="24" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="160" t="s">
-        <v>109</v>
+      <c r="A24" s="159" t="s">
+        <v>102</v>
       </c>
-      <c r="B24" s="162" t="s">
+      <c r="B24" s="161" t="s">
         <v>51</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D24" s="50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" s="51"/>
       <c r="F24" s="104"/>
@@ -17933,13 +17914,13 @@
       <c r="Z24" s="47"/>
     </row>
     <row r="25" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="161"/>
-      <c r="B25" s="163"/>
+      <c r="A25" s="160"/>
+      <c r="B25" s="162"/>
       <c r="C25" s="52" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" s="51"/>
       <c r="F25" s="104"/>
@@ -17964,23 +17945,17 @@
       <c r="Y25" s="47"/>
       <c r="Z25" s="47"/>
     </row>
-    <row r="26" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="160" t="s">
-        <v>110</v>
+    <row r="26" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="158" t="s">
+        <v>153</v>
       </c>
-      <c r="B26" s="162" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="51"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="140"/>
       <c r="I26" s="47"/>
       <c r="J26" s="47"/>
       <c r="K26" s="47"/>
@@ -18000,19 +17975,23 @@
       <c r="Y26" s="47"/>
       <c r="Z26" s="47"/>
     </row>
-    <row r="27" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="161"/>
-      <c r="B27" s="163"/>
-      <c r="C27" s="52" t="s">
-        <v>39</v>
+    <row r="27" spans="1:26" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="49" t="s">
+        <v>103</v>
       </c>
-      <c r="D27" s="50" t="s">
-        <v>57</v>
+      <c r="B27" s="49" t="s">
+        <v>142</v>
       </c>
-      <c r="E27" s="51"/>
+      <c r="C27" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="132" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="49"/>
       <c r="F27" s="104"/>
       <c r="G27" s="104"/>
-      <c r="H27" s="51"/>
+      <c r="H27" s="49"/>
       <c r="I27" s="47"/>
       <c r="J27" s="47"/>
       <c r="K27" s="47"/>
@@ -18032,17 +18011,23 @@
       <c r="Y27" s="47"/>
       <c r="Z27" s="47"/>
     </row>
-    <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="159" t="s">
-        <v>164</v>
+    <row r="28" spans="1:26" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="49" t="s">
+        <v>104</v>
       </c>
-      <c r="B28" s="140"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="141"/>
+      <c r="B28" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="E28" s="49"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="49"/>
       <c r="I28" s="47"/>
       <c r="J28" s="47"/>
       <c r="K28" s="47"/>
@@ -18062,18 +18047,18 @@
       <c r="Y28" s="47"/>
       <c r="Z28" s="47"/>
     </row>
-    <row r="29" spans="1:26" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="66" x14ac:dyDescent="0.25">
       <c r="A29" s="49" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
-      <c r="D29" s="133" t="s">
-        <v>88</v>
+      <c r="D29" s="49" t="s">
+        <v>225</v>
       </c>
       <c r="E29" s="49"/>
       <c r="F29" s="104"/>
@@ -18098,18 +18083,18 @@
       <c r="Y29" s="47"/>
       <c r="Z29" s="47"/>
     </row>
-    <row r="30" spans="1:26" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="66" x14ac:dyDescent="0.25">
       <c r="A30" s="49" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>151</v>
+        <v>227</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="D30" s="49" t="s">
-        <v>42</v>
+        <v>229</v>
       </c>
       <c r="E30" s="49"/>
       <c r="F30" s="104"/>
@@ -18136,16 +18121,16 @@
     </row>
     <row r="31" spans="1:26" ht="66" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B31" s="49" t="s">
-        <v>152</v>
+        <v>226</v>
       </c>
       <c r="C31" s="49" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D31" s="49" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="E31" s="49"/>
       <c r="F31" s="104"/>
@@ -18170,20 +18155,20 @@
       <c r="Y31" s="47"/>
       <c r="Z31" s="47"/>
     </row>
-    <row r="32" spans="1:26" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="66" x14ac:dyDescent="0.25">
       <c r="A32" s="49" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>153</v>
+        <v>230</v>
       </c>
       <c r="C32" s="49" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D32" s="49" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
-      <c r="E32" s="130"/>
+      <c r="E32" s="49"/>
       <c r="F32" s="104"/>
       <c r="G32" s="104"/>
       <c r="H32" s="49"/>
@@ -18206,18 +18191,18 @@
       <c r="Y32" s="47"/>
       <c r="Z32" s="47"/>
     </row>
-    <row r="33" spans="1:26" ht="66" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="33" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D33" s="49" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="E33" s="49"/>
       <c r="F33" s="104"/>
@@ -18242,18 +18227,18 @@
       <c r="Y33" s="47"/>
       <c r="Z33" s="47"/>
     </row>
-    <row r="34" spans="1:26" ht="66" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="33" x14ac:dyDescent="0.25">
       <c r="A34" s="49" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B34" s="49" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C34" s="49" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D34" s="49" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="E34" s="49"/>
       <c r="F34" s="104"/>
@@ -18280,16 +18265,16 @@
     </row>
     <row r="35" spans="1:26" ht="33" x14ac:dyDescent="0.25">
       <c r="A35" s="49" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B35" s="49" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D35" s="49" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="104"/>
@@ -18316,16 +18301,16 @@
     </row>
     <row r="36" spans="1:26" ht="33" x14ac:dyDescent="0.25">
       <c r="A36" s="49" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
-      <c r="B36" s="49" t="s">
-        <v>157</v>
+      <c r="B36" s="53" t="s">
+        <v>147</v>
       </c>
       <c r="C36" s="49" t="s">
-        <v>172</v>
+        <v>75</v>
       </c>
-      <c r="D36" s="49" t="s">
-        <v>176</v>
+      <c r="D36" s="53" t="s">
+        <v>162</v>
       </c>
       <c r="E36" s="49"/>
       <c r="F36" s="104"/>
@@ -18350,23 +18335,15 @@
       <c r="Y36" s="47"/>
       <c r="Z36" s="47"/>
     </row>
-    <row r="37" spans="1:26" ht="33" x14ac:dyDescent="0.25">
-      <c r="A37" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="B37" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="D37" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="E37" s="49"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="49"/>
+    <row r="37" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="47"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="47"/>
       <c r="I37" s="47"/>
       <c r="J37" s="47"/>
       <c r="K37" s="47"/>
@@ -18386,23 +18363,15 @@
       <c r="Y37" s="47"/>
       <c r="Z37" s="47"/>
     </row>
-    <row r="38" spans="1:26" ht="33" x14ac:dyDescent="0.25">
-      <c r="A38" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="E38" s="49"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="49"/>
+    <row r="38" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="47"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="47"/>
       <c r="I38" s="47"/>
       <c r="J38" s="47"/>
       <c r="K38" s="47"/>
@@ -45442,80 +45411,24 @@
       <c r="Y1003" s="47"/>
       <c r="Z1003" s="47"/>
     </row>
-    <row r="1004" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1004" s="47"/>
-      <c r="B1004" s="47"/>
-      <c r="C1004" s="47"/>
-      <c r="D1004" s="47"/>
-      <c r="E1004" s="47"/>
-      <c r="F1004" s="105"/>
-      <c r="G1004" s="105"/>
-      <c r="H1004" s="47"/>
-      <c r="I1004" s="47"/>
-      <c r="J1004" s="47"/>
-      <c r="K1004" s="47"/>
-      <c r="L1004" s="47"/>
-      <c r="M1004" s="47"/>
-      <c r="N1004" s="47"/>
-      <c r="O1004" s="47"/>
-      <c r="P1004" s="47"/>
-      <c r="Q1004" s="47"/>
-      <c r="R1004" s="47"/>
-      <c r="S1004" s="47"/>
-      <c r="T1004" s="47"/>
-      <c r="U1004" s="47"/>
-      <c r="V1004" s="47"/>
-      <c r="W1004" s="47"/>
-      <c r="X1004" s="47"/>
-      <c r="Y1004" s="47"/>
-      <c r="Z1004" s="47"/>
-    </row>
-    <row r="1005" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1005" s="47"/>
-      <c r="B1005" s="47"/>
-      <c r="C1005" s="47"/>
-      <c r="D1005" s="47"/>
-      <c r="E1005" s="47"/>
-      <c r="F1005" s="105"/>
-      <c r="G1005" s="105"/>
-      <c r="H1005" s="47"/>
-      <c r="I1005" s="47"/>
-      <c r="J1005" s="47"/>
-      <c r="K1005" s="47"/>
-      <c r="L1005" s="47"/>
-      <c r="M1005" s="47"/>
-      <c r="N1005" s="47"/>
-      <c r="O1005" s="47"/>
-      <c r="P1005" s="47"/>
-      <c r="Q1005" s="47"/>
-      <c r="R1005" s="47"/>
-      <c r="S1005" s="47"/>
-      <c r="T1005" s="47"/>
-      <c r="U1005" s="47"/>
-      <c r="V1005" s="47"/>
-      <c r="W1005" s="47"/>
-      <c r="X1005" s="47"/>
-      <c r="Y1005" s="47"/>
-      <c r="Z1005" s="47"/>
-    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="A8:H8"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D29" location="'Layout-list'!A1" display="Display parkingLot's list screen"/>
+    <hyperlink ref="D27" location="'Layout-list'!A1" display="Display parkingLot's list screen"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -45548,41 +45461,41 @@
       <c r="A1" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="180" t="s">
-        <v>96</v>
+      <c r="B1" s="179" t="s">
+        <v>90</v>
       </c>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="141"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="140"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="141"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="140"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="180" t="s">
-        <v>45</v>
+      <c r="B3" s="179" t="s">
+        <v>44</v>
       </c>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="141"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="140"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="73" t="s">
@@ -45597,12 +45510,12 @@
       <c r="D4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="181" t="s">
+      <c r="E4" s="180" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="141"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="140"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="74">
@@ -45617,12 +45530,12 @@
       <c r="D5" s="74">
         <v>0</v>
       </c>
-      <c r="E5" s="182">
+      <c r="E5" s="181">
         <v>28</v>
       </c>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="141"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="140"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="76"/>
@@ -45647,7 +45560,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="46" t="s">
         <v>34</v>
@@ -45660,29 +45573,29 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="179" t="s">
-        <v>58</v>
+      <c r="A8" s="178" t="s">
+        <v>57</v>
       </c>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="141"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="140"/>
     </row>
     <row r="9" spans="1:8" ht="66" x14ac:dyDescent="0.25">
       <c r="A9" s="79" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B9" s="80" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C9" s="81" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E9" s="83"/>
       <c r="F9" s="104"/>
@@ -45691,16 +45604,16 @@
     </row>
     <row r="10" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A10" s="79" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B10" s="81" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C10" s="81" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D10" s="85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="83"/>
       <c r="F10" s="104"/>
@@ -45709,16 +45622,16 @@
     </row>
     <row r="11" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C11" s="81" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D11" s="85" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E11" s="83"/>
       <c r="F11" s="104"/>
@@ -45727,16 +45640,16 @@
     </row>
     <row r="12" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A12" s="79" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C12" s="81" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D12" s="85" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E12" s="83"/>
       <c r="F12" s="104"/>
@@ -45745,16 +45658,16 @@
     </row>
     <row r="13" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A13" s="79" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>86</v>
+        <v>231</v>
       </c>
       <c r="C13" s="81" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D13" s="85" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E13" s="83"/>
       <c r="F13" s="104"/>
@@ -45763,10 +45676,10 @@
     </row>
     <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="81"/>
       <c r="D14" s="49" t="s">
@@ -45779,10 +45692,10 @@
     </row>
     <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="79" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="81"/>
       <c r="D15" s="86" t="s">
@@ -45794,29 +45707,29 @@
       <c r="H15" s="84"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="179" t="s">
-        <v>66</v>
+      <c r="A16" s="178" t="s">
+        <v>65</v>
       </c>
-      <c r="B16" s="140"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="141"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="140"/>
     </row>
     <row r="17" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A17" s="79" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B17" s="79" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C17" s="81" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
-      <c r="D17" s="131" t="s">
-        <v>89</v>
+      <c r="D17" s="130" t="s">
+        <v>83</v>
       </c>
       <c r="E17" s="83"/>
       <c r="F17" s="104"/>
@@ -45825,16 +45738,16 @@
     </row>
     <row r="18" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A18" s="79" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B18" s="79" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C18" s="79" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D18" s="79" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E18" s="83"/>
       <c r="F18" s="104"/>
@@ -45843,16 +45756,16 @@
     </row>
     <row r="19" spans="1:8" ht="66" x14ac:dyDescent="0.25">
       <c r="A19" s="79" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B19" s="79" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C19" s="79" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D19" s="79" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E19" s="83"/>
       <c r="F19" s="104"/>
@@ -45861,16 +45774,16 @@
     </row>
     <row r="20" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A20" s="79" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B20" s="79" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C20" s="79" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D20" s="79" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E20" s="83"/>
       <c r="F20" s="104"/>
@@ -45879,16 +45792,16 @@
     </row>
     <row r="21" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A21" s="79" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B21" s="79" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C21" s="79" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D21" s="79" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E21" s="83"/>
       <c r="F21" s="104"/>
@@ -45897,16 +45810,16 @@
     </row>
     <row r="22" spans="1:8" ht="66" x14ac:dyDescent="0.25">
       <c r="A22" s="79" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B22" s="79" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C22" s="79" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D22" s="79" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="E22" s="83"/>
       <c r="F22" s="104"/>
@@ -45915,16 +45828,16 @@
     </row>
     <row r="23" spans="1:8" ht="66" x14ac:dyDescent="0.25">
       <c r="A23" s="79" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B23" s="79" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C23" s="79" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D23" s="79" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="E23" s="83"/>
       <c r="F23" s="104"/>
@@ -45933,16 +45846,16 @@
     </row>
     <row r="24" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A24" s="79" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B24" s="79" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C24" s="79" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D24" s="79" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E24" s="83"/>
       <c r="F24" s="104"/>
@@ -45951,16 +45864,16 @@
     </row>
     <row r="25" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A25" s="79" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B25" s="79" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C25" s="79" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D25" s="79" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E25" s="83"/>
       <c r="F25" s="104"/>
@@ -45969,16 +45882,16 @@
     </row>
     <row r="26" spans="1:8" ht="66" x14ac:dyDescent="0.25">
       <c r="A26" s="79" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B26" s="79" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C26" s="79" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D26" s="79" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="E26" s="83"/>
       <c r="F26" s="104"/>
@@ -45987,16 +45900,16 @@
     </row>
     <row r="27" spans="1:8" ht="66" x14ac:dyDescent="0.25">
       <c r="A27" s="79" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B27" s="79" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C27" s="79" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D27" s="79" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E27" s="83"/>
       <c r="F27" s="104"/>
@@ -46005,16 +45918,16 @@
     </row>
     <row r="28" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A28" s="79" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B28" s="79" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C28" s="79" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D28" s="79" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="E28" s="83"/>
       <c r="F28" s="104"/>
@@ -46023,16 +45936,16 @@
     </row>
     <row r="29" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A29" s="79" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B29" s="79" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C29" s="79" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D29" s="79" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E29" s="83"/>
       <c r="F29" s="104"/>
@@ -46041,16 +45954,16 @@
     </row>
     <row r="30" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A30" s="79" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B30" s="79" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C30" s="79" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D30" s="79" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E30" s="83"/>
       <c r="F30" s="104"/>
@@ -46059,16 +45972,16 @@
     </row>
     <row r="31" spans="1:8" ht="66" x14ac:dyDescent="0.25">
       <c r="A31" s="79" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B31" s="79" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C31" s="79" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D31" s="79" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="E31" s="83"/>
       <c r="F31" s="104"/>
@@ -46077,16 +45990,16 @@
     </row>
     <row r="32" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A32" s="79" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B32" s="79" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C32" s="79" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D32" s="79" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E32" s="83"/>
       <c r="F32" s="104"/>
@@ -46095,16 +46008,16 @@
     </row>
     <row r="33" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A33" s="79" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B33" s="79" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C33" s="79" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D33" s="79" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E33" s="83"/>
       <c r="F33" s="104"/>
@@ -46113,16 +46026,16 @@
     </row>
     <row r="34" spans="1:8" ht="66" x14ac:dyDescent="0.25">
       <c r="A34" s="79" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B34" s="79" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C34" s="79" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D34" s="79" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="E34" s="83"/>
       <c r="F34" s="104"/>
@@ -46131,16 +46044,16 @@
     </row>
     <row r="35" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A35" s="79" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B35" s="79" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C35" s="79" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D35" s="79" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E35" s="83"/>
       <c r="F35" s="104"/>
@@ -46149,16 +46062,16 @@
     </row>
     <row r="36" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A36" s="79" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B36" s="53" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C36" s="79" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D36" s="79" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E36" s="83"/>
       <c r="F36" s="104"/>
@@ -46167,16 +46080,16 @@
     </row>
     <row r="37" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A37" s="79" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B37" s="53" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C37" s="79" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D37" s="79" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="E37" s="83"/>
       <c r="F37" s="104"/>
@@ -47169,8 +47082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -47180,13 +47093,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="183" t="s">
-        <v>77</v>
+      <c r="A1" s="182" t="s">
+        <v>224</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -48207,12 +48120,12 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" s="55" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="183" t="s">
-        <v>78</v>
+      <c r="A1" s="182" t="s">
+        <v>74</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="132"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="1">
